--- a/biology/Botanique/Gesneriaceae/Gesneriaceae.xlsx
+++ b/biology/Botanique/Gesneriaceae/Gesneriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gesnériacées (Gesneriaceae Rich. &amp; Juss. ), sont une famille de plantes dicotylédones de l'ordre des Lamiales. Ce sont des plantes herbacées, des arbustes, parfois des lianes, dont la plupart sont originaires des régions subtropicales à tropicales, même si quelques espèces viennent des régions tempérées. Selon Watson &amp; Dallwitz cette famille comprend 3 300 espèces réparties en près de 140 genres.
 En France, c'est la famille de la Ramondie des Pyrénées (Ramonda myconi), une petite plante à rosette et à fleurs mauves, endémique du massif pyrénéen.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Gesneria dédié au naturaliste suisse Conrad Gesner (1516-1565).
 </t>
@@ -544,12 +558,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite pour la première fois en 1816 par le Louis Claude Richard et Antoine-Laurent de Jussieu. L'espèce type étant Gesneria humilis L.[1]. 
-En classification classique de Cronquist (1981)[3] elle fait partie de l'ordre des Scrophulariales. 
-En classification phylogénétique APG II (2003)[4] cette famille est située dans l'ordre des Lamiales. 
-La classification phylogénétique APG IV (2016)[5] déplace le genre Sanango de la famille des Loganiaceae vers les Gesneriaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite pour la première fois en 1816 par le Louis Claude Richard et Antoine-Laurent de Jussieu. L'espèce type étant Gesneria humilis L.. 
+En classification classique de Cronquist (1981) elle fait partie de l'ordre des Scrophulariales. 
+En classification phylogénétique APG II (2003) cette famille est située dans l'ordre des Lamiales. 
+La classification phylogénétique APG IV (2016) déplace le genre Sanango de la famille des Loganiaceae vers les Gesneriaceae.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (22 mai 2017)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (22 mai 2017) :
 sous-famille Didymocarpoideae Arnott
 sous-famille Epithematoideae
 sous-famille Gesnerioideae Link</t>
@@ -611,15 +629,52 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ramonda myconi, la Ramondie des Pyrénées
 			Gloxinia perennis
 			Chrysothemis pulchella
 			Saintpaulia brevipilosa
-Selon Delta-angio
-Selon DELTA Angio           (22 mai 2017)[7]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gesneriaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gesneriaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Selon Delta-angio</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon DELTA Angio           (22 mai 2017)
 Achanthonema
 Achimines
 Aeschynanthus
@@ -763,8 +818,43 @@
 Tylopsacas
 Vanhouttea
 Whytockia
-Selon  GRIN famille
-Selon GRIN            (22 mai 2017)[2]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gesneriaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gesneriaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Selon  GRIN famille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (22 mai 2017)
 Achimenes P. Browne
 Aeschynanthus Jack
 Agalmyla Blume
@@ -804,9 +894,45 @@
 Sinningia Nees
 Streptocarpus Lindl.
 Trichantha Hook.
-Selon  Tropicos
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gesneriaceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gesneriaceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Selon  Tropicos</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (22 mai 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 mai 2017) (Attention liste brute contenant possiblement des synonymes) :
 Acanthonema Hook. f.
 Achimenes Pers.
 Aeschinanthus Endl.
